--- a/data/output/FV2304_FV2210/UTILMD/11140.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11140.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="312">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="312">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1046,6 +1046,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U209" totalsRowShown="0">
+  <autoFilter ref="A1:U209"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,7 +1365,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10961,5 +10994,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11140.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11140.xlsx
@@ -2078,7 +2078,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4568,7 +4568,7 @@
         <v>296</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4720,7 +4720,7 @@
         <v>296</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5100,7 +5100,7 @@
         <v>298</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5298,7 +5298,7 @@
         <v>298</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5554,7 +5554,7 @@
         <v>301</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6084,7 +6084,7 @@
         <v>298</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6370,7 +6370,7 @@
         <v>303</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6520,7 +6520,7 @@
         <v>304</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6776,7 +6776,7 @@
         <v>304</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7172,7 +7172,7 @@
         <v>303</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7856,7 +7856,7 @@
         <v>306</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8144,7 +8144,7 @@
         <v>307</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8390,7 +8390,7 @@
         <v>298</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8916,7 +8916,7 @@
         <v>309</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9204,7 +9204,7 @@
         <v>298</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9742,7 +9742,7 @@
         <v>310</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10030,7 +10030,7 @@
         <v>311</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10476,7 +10476,7 @@
         <v>311</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11126,7 +11126,7 @@
         <v>311</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11626,7 +11626,7 @@
         <v>311</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N207" s="2"/>
